--- a/tables/Appendix Table S9_+Spores_TN_InfPrev_SEM_output.xlsx
+++ b/tables/Appendix Table S9_+Spores_TN_InfPrev_SEM_output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/Rachel Bag Experiment SEM/Data and Code/nutrient-bag-expt/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/Manuscripts/Parasitism alters effects of mixing and nutrients - Oecologia/Data and Code/nutrient-bag-expt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{B0FD711D-443A-4779-922C-1D388ECD1252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0050A6-92E5-4D53-9D08-10F122C0E9BE}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{B0FD711D-443A-4779-922C-1D388ECD1252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C69DF1-70E5-4D55-9DF0-AF133195E5BB}"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="2820" windowWidth="25380" windowHeight="15210" xr2:uid="{A333C88C-4B59-4FCA-AC58-93C6857E7BAF}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" xr2:uid="{A333C88C-4B59-4FCA-AC58-93C6857E7BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,10 +260,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,7 +562,7 @@
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,7 +683,9 @@
       <c r="F6" s="7">
         <v>6.6948864991458103E-3</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>79</v>
+      </c>
       <c r="H6" s="7">
         <v>-1.6518413792629101</v>
       </c>
